--- a/buyResults/購買分析結果.xlsx
+++ b/buyResults/購買分析結果.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2021年</t>
+          <t>2013年</t>
         </is>
       </c>
     </row>
@@ -462,72 +462,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.23</v>
+        <v>76.3</v>
       </c>
       <c r="C5" t="n">
-        <v>121506</v>
+        <v>13106</v>
       </c>
       <c r="D5" t="n">
-        <v>999994.38</v>
+        <v>999987.7999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n">
-        <v>9.99</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>100100</v>
+        <v>12180</v>
       </c>
       <c r="D6" t="n">
-        <v>999999</v>
+        <v>999977.9999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C7" t="n">
-        <v>100000</v>
+        <v>17543</v>
       </c>
       <c r="D7" t="n">
-        <v>1000000</v>
+        <v>999951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>10.15</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>98522</v>
+        <v>27027</v>
       </c>
       <c r="D8" t="n">
-        <v>999998.3</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.2</v>
+        <v>150.5</v>
       </c>
       <c r="C9" t="n">
-        <v>98039</v>
+        <v>6644</v>
       </c>
       <c r="D9" t="n">
-        <v>999997.7999999999</v>
+        <v>999922</v>
       </c>
     </row>
     <row r="11">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.52000000013504</v>
+        <v>162.2000000001863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022年</t>
+          <t>2014年</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6539528.61</v>
+        <v>9455399.600000001</v>
       </c>
     </row>
     <row r="18">
@@ -581,72 +581,72 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B19" t="n">
-        <v>8.92</v>
+        <v>306</v>
       </c>
       <c r="C19" t="n">
-        <v>146626</v>
+        <v>6179</v>
       </c>
       <c r="D19" t="n">
-        <v>1307903.92</v>
+        <v>1890774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B20" t="n">
-        <v>9.07</v>
+        <v>44.9</v>
       </c>
       <c r="C20" t="n">
-        <v>144201</v>
+        <v>42117</v>
       </c>
       <c r="D20" t="n">
-        <v>1307903.07</v>
+        <v>1891053.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>9.210000000000001</v>
+        <v>265.5</v>
       </c>
       <c r="C21" t="n">
-        <v>142009</v>
+        <v>7122</v>
       </c>
       <c r="D21" t="n">
-        <v>1307902.89</v>
+        <v>1890891</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>35.1</v>
+        <v>71.7</v>
       </c>
       <c r="C22" t="n">
-        <v>37262</v>
+        <v>26374</v>
       </c>
       <c r="D22" t="n">
-        <v>1307896.2</v>
+        <v>1891015.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>11.1</v>
+        <v>99.3</v>
       </c>
       <c r="C23" t="n">
-        <v>117829</v>
+        <v>19044</v>
       </c>
       <c r="D23" t="n">
-        <v>1307901.9</v>
+        <v>1891069.2</v>
       </c>
     </row>
     <row r="25">
@@ -656,17 +656,969 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.63000000012107</v>
+        <v>596.3000000016764</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2015年</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9878549.700000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>26</v>
+      </c>
+      <c r="B33" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C33" t="n">
+        <v>19088</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1975608</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>483.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4086</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1975581</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8</v>
+      </c>
+      <c r="B35" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6088</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1975556</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39514</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1975700</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53</v>
+      </c>
+      <c r="B37" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30302</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1975690.4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>414.3000000009779</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2016年</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>7973395.2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>318</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5014</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1594452</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5219</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1594404.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>26</v>
+      </c>
+      <c r="B49" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>22587</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1594642.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="n">
+        <v>54</v>
+      </c>
+      <c r="C50" t="n">
+        <v>29531</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1594674</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>24346</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1594663</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>559.5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2017年</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9346920.699999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>204</v>
+      </c>
+      <c r="C61" t="n">
+        <v>9163</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1869252</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B62" t="n">
+        <v>390</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4793</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1869270</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>69</v>
+      </c>
+      <c r="B63" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5869</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1869276.5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>8</v>
+      </c>
+      <c r="B64" t="n">
+        <v>701</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2666</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1868866</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>40</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32969</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1869342.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>913.8999999992084</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2018年</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9203631.899999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9765</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1840702.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53</v>
+      </c>
+      <c r="B76" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>18879</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1840702.5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3</v>
+      </c>
+      <c r="B77" t="n">
+        <v>361</v>
+      </c>
+      <c r="C77" t="n">
+        <v>5098</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1840378</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>86</v>
+      </c>
+      <c r="B78" t="n">
+        <v>151</v>
+      </c>
+      <c r="C78" t="n">
+        <v>12190</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1840690</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>8</v>
+      </c>
+      <c r="B79" t="n">
+        <v>879</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2094</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1840626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>532.8999999985099</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2019年</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>8948272.999999998</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>4</v>
+      </c>
+      <c r="B89" t="n">
+        <v>270</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6628</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1789560</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>365</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4903</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1789595</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>8</v>
+      </c>
+      <c r="B91" t="n">
+        <v>630</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2840</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1789200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>69</v>
+      </c>
+      <c r="B92" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6543</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1789510.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>32</v>
+      </c>
+      <c r="B93" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15494</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1789557</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>850.4999999981374</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020年</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>14632258</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>4</v>
+      </c>
+      <c r="B103" t="n">
+        <v>577</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5071</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2925967</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>22</v>
+      </c>
+      <c r="B104" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34348</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2926449.6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>400</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7316</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2926400</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2925840</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>69</v>
+      </c>
+      <c r="B107" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="C107" t="n">
+        <v>10858</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2926231</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1370.39999999851</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>24547718.4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>946</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5189</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4908794</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>86</v>
+      </c>
+      <c r="B118" t="n">
+        <v>142</v>
+      </c>
+      <c r="C118" t="n">
+        <v>34574</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4909508</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="n">
+        <v>966</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5082</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4909212</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>22</v>
+      </c>
+      <c r="B120" t="n">
+        <v>155</v>
+      </c>
+      <c r="C120" t="n">
+        <v>31674</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4909470</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>25</v>
+      </c>
+      <c r="B121" t="n">
+        <v>321</v>
+      </c>
+      <c r="C121" t="n">
+        <v>15294</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4909374</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1360.39999999851</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>28712874.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="n">
+        <v>761</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7546</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5742506</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>22</v>
+      </c>
+      <c r="B132" t="n">
+        <v>148</v>
+      </c>
+      <c r="C132" t="n">
+        <v>38801</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5742548</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>3</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3634</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5741720</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>8</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5740800</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" t="n">
+        <v>183.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>31294</v>
+      </c>
+      <c r="D135" t="n">
+        <v>5742449</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2851.39999999851</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>最終資金</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>6787963.45</v>
+      <c r="B141" t="n">
+        <v>29734738.4</v>
       </c>
     </row>
   </sheetData>
